--- a/Map.xlsx
+++ b/Map.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="13">
   <si>
     <t xml:space="preserve">R</t>
   </si>
@@ -31,28 +31,28 @@
     <t xml:space="preserve">Border of the Map -</t>
   </si>
   <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input (Conveyor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The field is defined by a rectangle!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output (Destination)</t>
+  </si>
+  <si>
     <t xml:space="preserve">X</t>
   </si>
   <si>
-    <t xml:space="preserve">I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input (Conveyor)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The field is defined by a rectangle!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Output (Place of discharge)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Unavailable cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">Empty cell</t>
@@ -182,36 +182,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -292,10 +296,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L6" activeCellId="0" sqref="L6"/>
+      <selection pane="topLeft" activeCell="M23" activeCellId="0" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -313,10 +317,10 @@
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>3</v>
@@ -324,91 +328,402 @@
       <c r="K1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="0" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="H3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>4</v>
+      <c r="H3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="H4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>3</v>
+      <c r="H4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2"/>
+      <c r="H5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="H6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="8">
